--- a/01 - Scripts/AdvantageShopping/Default.xlsx
+++ b/01 - Scripts/AdvantageShopping/Default.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
   <si>
     <t>userprueba3</t>
   </si>
@@ -41,12 +41,12 @@
     <t>pruebaSafepay3</t>
   </si>
   <si>
+    <t>OFF</t>
+  </si>
+  <si>
     <t>TEST2</t>
   </si>
   <si>
-    <t>OFF</t>
-  </si>
-  <si>
     <t>ciudad</t>
   </si>
   <si>
@@ -128,6 +128,9 @@
     <t>totalGastoProductos</t>
   </si>
   <si>
+    <t>TEST_001</t>
+  </si>
+  <si>
     <t>userprueba2</t>
   </si>
   <si>
@@ -152,10 +155,13 @@
     <t>numeroPedido</t>
   </si>
   <si>
+    <t>TEST_002</t>
+  </si>
+  <si>
+    <t>ejecutarPrueba</t>
+  </si>
+  <si>
     <t>TEST1</t>
-  </si>
-  <si>
-    <t>ejecutarPrueba</t>
   </si>
   <si>
     <t>Pérez</t>
@@ -661,12 +667,12 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15.1"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.48046875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.734375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="2" customWidth="1"/>
   </cols>
@@ -676,12 +682,12 @@
         <v>5</v>
       </c>
       <c t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c s="3" t="s">
         <v>11</v>
@@ -689,10 +695,10 @@
     </row>
     <row>
       <c s="1" t="s">
+        <v>45</v>
+      </c>
+      <c s="3" t="s">
         <v>7</v>
-      </c>
-      <c s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row>
@@ -755,21 +761,21 @@
         <v>31</v>
       </c>
       <c t="s">
+        <v>49</v>
+      </c>
+      <c t="s">
+        <v>9</v>
+      </c>
+      <c t="s">
+        <v>50</v>
+      </c>
+      <c t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row>
+      <c s="1" t="s">
         <v>47</v>
-      </c>
-      <c t="s">
-        <v>9</v>
-      </c>
-      <c t="s">
-        <v>48</v>
-      </c>
-      <c t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row>
-      <c s="1" t="s">
-        <v>44</v>
       </c>
       <c s="1" t="s">
         <v>19</v>
@@ -793,7 +799,7 @@
         <v>32</v>
       </c>
       <c s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c s="1" t="s">
         <v>15</v>
@@ -804,19 +810,19 @@
     </row>
     <row>
       <c s="1" t="s">
-        <v>7</v>
-      </c>
-      <c s="1" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c s="1" t="s">
+        <v>37</v>
       </c>
       <c s="1" t="s">
         <v>16</v>
       </c>
       <c s="1" t="s">
+        <v>41</v>
+      </c>
+      <c s="1" t="s">
         <v>40</v>
-      </c>
-      <c s="1" t="s">
-        <v>39</v>
       </c>
       <c s="1" t="s">
         <v>20</v>
@@ -825,7 +831,7 @@
         <v>654984988</v>
       </c>
       <c s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c s="1" t="s">
         <v>33</v>
@@ -854,13 +860,13 @@
         <v>13</v>
       </c>
       <c s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c s="1">
         <v>689129878</v>
       </c>
       <c s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c s="1" t="s">
         <v>21</v>
@@ -940,7 +946,7 @@
         <v>5</v>
       </c>
       <c t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c t="s">
         <v>4</v>
@@ -952,15 +958,15 @@
         <v>23</v>
       </c>
       <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c t="s">
+        <v>44</v>
       </c>
     </row>
     <row>
       <c s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c s="1" t="s">
         <v>22</v>
@@ -979,7 +985,7 @@
     </row>
     <row>
       <c s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c s="1" t="s">
         <v>26</v>
@@ -989,7 +995,7 @@
       </c>
       <c s="1"/>
       <c s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c s="1" t="s">
         <v>2</v>
